--- a/MedicalServices/bills.xlsx
+++ b/MedicalServices/bills.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.05" customHeight="1" x14ac:dyDescent="0.2"/>
